--- a/Bilder/a_PJ200 L/b_Einzeltests/test.xlsx
+++ b/Bilder/a_PJ200 L/b_Einzeltests/test.xlsx
@@ -14,6 +14,12 @@
     <sheet name="test1" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="test2" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="test3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="datas" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test6" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test7" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2733,6 +2739,746 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume / nL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>266</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>274</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume / nL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>266</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>274</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume / nL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>266</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>274</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume / nL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>266</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>274</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -12333,4 +13079,207 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume / nL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>266</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>274</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>